--- a/learnings/dim_grpo/data.xlsx
+++ b/learnings/dim_grpo/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14720"/>
+    <workbookView windowHeight="14640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,16 +60,7 @@
 sku_attributes: Color classification: Square light gray [ready in stock]</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10.5"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://patent-oss-image.suntekcorps.com/WEBSEARCH_IMG/573366953365/4213086966614_1737543177225.jpg</t>
-    </r>
+    <t>https://patent-oss-image.suntekcorps.com/WEBSEARCH_IMG/573366953365/4213086966614_1737543177225.jpg</t>
   </si>
   <si>
     <r>
@@ -160,9 +151,8 @@
       <u/>
       <sz val="10.5"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1128,7 +1118,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="15.2" outlineLevelRow="1" outlineLevelCol="7"/>
@@ -1199,7 +1189,7 @@
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://eric-cdn.suntekcorps.com/agent_mr_image/302fed54048348bea069813b4a778c32.png"/>
     <hyperlink ref="D2" r:id="rId2" display="https://eric-cdn.suntekcorps.com/agent_mr_image/54cf92c3365448259dd77a37326f3c41.png"/>
-    <hyperlink ref="C2" r:id="rId3" display="https://patent-oss-image.suntekcorps.com/WEBSEARCH_IMG/573366953365/4213086966614_1737543177225.jpg"/>
+    <hyperlink ref="C2" r:id="rId3" display="https://patent-oss-image.suntekcorps.com/WEBSEARCH_IMG/573366953365/4213086966614_1737543177225.jpg" tooltip="https://patent-oss-image.suntekcorps.com/WEBSEARCH_IMG/573366953365/4213086966614_1737543177225.jpg"/>
     <hyperlink ref="F2" r:id="rId4" display="https://eric-cdn.suntekcorps.com/agent_mr_image/e457f0e885be462dab24739f93b1e874.png"/>
     <hyperlink ref="G2" r:id="rId5" display="https://eric-cdn.suntekcorps.com/agent_mr_image/2f0f873c509e4dc08ae57ba0a599f016.png"/>
   </hyperlinks>
